--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna4-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna4-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2970003333333334</v>
+        <v>0.3747116666666667</v>
       </c>
       <c r="H2">
-        <v>0.891001</v>
+        <v>1.124135</v>
       </c>
       <c r="I2">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="J2">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.003058333333333333</v>
+        <v>26.097779</v>
       </c>
       <c r="N2">
-        <v>0.009175000000000001</v>
+        <v>78.29333700000001</v>
       </c>
       <c r="O2">
-        <v>0.0001134234803787887</v>
+        <v>0.9922055808976035</v>
       </c>
       <c r="P2">
-        <v>0.0001134234803787887</v>
+        <v>0.9922055808976036</v>
       </c>
       <c r="Q2">
-        <v>0.0009083260194444446</v>
+        <v>9.779142265388336</v>
       </c>
       <c r="R2">
-        <v>0.008174934175000001</v>
+        <v>88.01228038849501</v>
       </c>
       <c r="S2">
-        <v>3.528207891790724E-05</v>
+        <v>0.3884157174903181</v>
       </c>
       <c r="T2">
-        <v>3.528207891790725E-05</v>
+        <v>0.3884157174903182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2970003333333334</v>
+        <v>0.3747116666666667</v>
       </c>
       <c r="H3">
-        <v>0.891001</v>
+        <v>1.124135</v>
       </c>
       <c r="I3">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="J3">
-        <v>0.3110650352121035</v>
+        <v>0.3914669751594584</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.097779</v>
+        <v>0.205015</v>
       </c>
       <c r="N3">
-        <v>78.29333699999999</v>
+        <v>0.6150450000000001</v>
       </c>
       <c r="O3">
-        <v>0.9678804112271815</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="P3">
-        <v>0.9678804112271815</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="Q3">
-        <v>7.751049062259668</v>
+        <v>0.07682151234166669</v>
       </c>
       <c r="R3">
-        <v>69.759441560337</v>
+        <v>0.6913936110750002</v>
       </c>
       <c r="S3">
-        <v>0.3010737541994885</v>
+        <v>0.003051257669140258</v>
       </c>
       <c r="T3">
-        <v>0.3010737541994885</v>
+        <v>0.003051257669140258</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2970003333333334</v>
+        <v>0.401547</v>
       </c>
       <c r="H4">
-        <v>0.891001</v>
+        <v>1.204641</v>
       </c>
       <c r="I4">
-        <v>0.3110650352121035</v>
+        <v>0.4195022558883632</v>
       </c>
       <c r="J4">
-        <v>0.3110650352121035</v>
+        <v>0.4195022558883631</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8630093333333333</v>
+        <v>26.097779</v>
       </c>
       <c r="N4">
-        <v>2.589028</v>
+        <v>78.29333700000001</v>
       </c>
       <c r="O4">
-        <v>0.03200616529243973</v>
+        <v>0.9922055808976035</v>
       </c>
       <c r="P4">
-        <v>0.03200616529243973</v>
+        <v>0.9922055808976036</v>
       </c>
       <c r="Q4">
-        <v>0.2563140596697778</v>
+        <v>10.479484864113</v>
       </c>
       <c r="R4">
-        <v>2.306826537028</v>
+        <v>94.31536377701701</v>
       </c>
       <c r="S4">
-        <v>0.009955998933697171</v>
+        <v>0.4162324794915684</v>
       </c>
       <c r="T4">
-        <v>0.009955998933697171</v>
+        <v>0.4162324794915684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,45 +726,45 @@
         <v>1.204641</v>
       </c>
       <c r="I5">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883632</v>
       </c>
       <c r="J5">
-        <v>0.4205625976659326</v>
+        <v>0.4195022558883631</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.003058333333333333</v>
+        <v>0.205015</v>
       </c>
       <c r="N5">
-        <v>0.009175000000000001</v>
+        <v>0.6150450000000001</v>
       </c>
       <c r="O5">
-        <v>0.0001134234803787887</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="P5">
-        <v>0.0001134234803787887</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="Q5">
-        <v>0.001228064575</v>
+        <v>0.08232315820500002</v>
       </c>
       <c r="R5">
-        <v>0.011052581175</v>
+        <v>0.7409084238450001</v>
       </c>
       <c r="S5">
-        <v>4.770167354441432E-05</v>
+        <v>0.003269776396794682</v>
       </c>
       <c r="T5">
-        <v>4.770167354441432E-05</v>
+        <v>0.003269776396794682</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.401547</v>
+        <v>0.18094</v>
       </c>
       <c r="H6">
-        <v>1.204641</v>
+        <v>0.54282</v>
       </c>
       <c r="I6">
-        <v>0.4205625976659326</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="J6">
-        <v>0.4205625976659326</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,30 +803,30 @@
         <v>26.097779</v>
       </c>
       <c r="N6">
-        <v>78.29333699999999</v>
+        <v>78.29333700000001</v>
       </c>
       <c r="O6">
-        <v>0.9678804112271815</v>
+        <v>0.9922055808976035</v>
       </c>
       <c r="P6">
-        <v>0.9678804112271815</v>
+        <v>0.9922055808976036</v>
       </c>
       <c r="Q6">
-        <v>10.479484864113</v>
+        <v>4.722132132260001</v>
       </c>
       <c r="R6">
-        <v>94.315363777017</v>
+        <v>42.49918919034</v>
       </c>
       <c r="S6">
-        <v>0.4070542999756745</v>
+        <v>0.1875573839157169</v>
       </c>
       <c r="T6">
-        <v>0.4070542999756745</v>
+        <v>0.1875573839157169</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,238 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.401547</v>
+        <v>0.18094</v>
       </c>
       <c r="H7">
-        <v>1.204641</v>
+        <v>0.54282</v>
       </c>
       <c r="I7">
-        <v>0.4205625976659326</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="J7">
-        <v>0.4205625976659326</v>
+        <v>0.1890307689521785</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8630093333333333</v>
+        <v>0.205015</v>
       </c>
       <c r="N7">
-        <v>2.589028</v>
+        <v>0.6150450000000001</v>
       </c>
       <c r="O7">
-        <v>0.03200616529243973</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="P7">
-        <v>0.03200616529243973</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="Q7">
-        <v>0.346538808772</v>
+        <v>0.0370954141</v>
       </c>
       <c r="R7">
-        <v>3.118849278948</v>
+        <v>0.3338587269</v>
       </c>
       <c r="S7">
-        <v>0.01346059601671367</v>
+        <v>0.001473385036461559</v>
       </c>
       <c r="T7">
-        <v>0.01346059601671367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.256238</v>
-      </c>
-      <c r="H8">
-        <v>0.7687139999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.2683723671219638</v>
-      </c>
-      <c r="J8">
-        <v>0.2683723671219639</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.003058333333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.009175000000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.0001134234803787887</v>
-      </c>
-      <c r="P8">
-        <v>0.0001134234803787887</v>
-      </c>
-      <c r="Q8">
-        <v>0.0007836612166666665</v>
-      </c>
-      <c r="R8">
-        <v>0.007052950949999999</v>
-      </c>
-      <c r="S8">
-        <v>3.043972791646714E-05</v>
-      </c>
-      <c r="T8">
-        <v>3.043972791646715E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.256238</v>
-      </c>
-      <c r="H9">
-        <v>0.7687139999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.2683723671219638</v>
-      </c>
-      <c r="J9">
-        <v>0.2683723671219639</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>26.097779</v>
-      </c>
-      <c r="N9">
-        <v>78.29333699999999</v>
-      </c>
-      <c r="O9">
-        <v>0.9678804112271815</v>
-      </c>
-      <c r="P9">
-        <v>0.9678804112271815</v>
-      </c>
-      <c r="Q9">
-        <v>6.687242695401999</v>
-      </c>
-      <c r="R9">
-        <v>60.18518425861799</v>
-      </c>
-      <c r="S9">
-        <v>0.2597523570520185</v>
-      </c>
-      <c r="T9">
-        <v>0.2597523570520185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.256238</v>
-      </c>
-      <c r="H10">
-        <v>0.7687139999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.2683723671219638</v>
-      </c>
-      <c r="J10">
-        <v>0.2683723671219639</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.8630093333333333</v>
-      </c>
-      <c r="N10">
-        <v>2.589028</v>
-      </c>
-      <c r="O10">
-        <v>0.03200616529243973</v>
-      </c>
-      <c r="P10">
-        <v>0.03200616529243973</v>
-      </c>
-      <c r="Q10">
-        <v>0.2211357855546666</v>
-      </c>
-      <c r="R10">
-        <v>1.990222069992</v>
-      </c>
-      <c r="S10">
-        <v>0.008589570342028891</v>
-      </c>
-      <c r="T10">
-        <v>0.008589570342028893</v>
+        <v>0.001473385036461559</v>
       </c>
     </row>
   </sheetData>
